--- a/Doc/1.SA/現行/オブジェクト/現行レポート一覧.xlsx
+++ b/Doc/1.SA/現行/オブジェクト/現行レポート一覧.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaimuVB\Desktop\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\現行\オブジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
   </bookViews>
   <sheets>
     <sheet name="業務予測システム" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="259">
   <si>
     <t>業務予測システム</t>
     <rPh sb="0" eb="2">
@@ -1396,7 +1396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,13 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1435,9 +1429,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,9 +1438,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1507,6 +1495,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,7 +1787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1813,14 +1812,14 @@
       <c r="B3" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1829,13 +1828,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1843,248 +1842,248 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B23" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2093,9 +2092,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -2139,14 +2138,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2155,508 +2154,508 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B45" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="30"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="20">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="20">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="20">
+      <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="20">
+      <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="20">
+      <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="30"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="20">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23" t="s">
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="30"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="20">
+      <c r="B31" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="20">
+      <c r="B32" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="20">
+      <c r="B33" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="20">
+      <c r="B34" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="20">
+      <c r="B35" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="20">
+      <c r="B36" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="30"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="20">
+      <c r="B37" s="16">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="30"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="20">
+      <c r="B38" s="16">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="30"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="20">
+      <c r="B39" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="30"/>
+      <c r="F39" s="26"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="20">
+      <c r="B40" s="16">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="20">
+      <c r="B41" s="16">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="20">
+      <c r="B42" s="16">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="20">
+      <c r="B43" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="20">
+      <c r="B44" s="16">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="30"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="27"/>
+      <c r="F45" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2695,14 +2694,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2711,16 +2710,16 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2762,14 +2761,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2778,13 +2777,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>256</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2828,14 +2827,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2844,13 +2843,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2858,86 +2857,86 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2946,9 +2945,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
         <v>151</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2992,44 +2991,44 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickTop="1">
-      <c r="B4" s="31">
+      <c r="B4" s="27">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="B5" s="4">
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3068,14 +3067,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3084,16 +3083,16 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3135,14 +3134,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3151,13 +3150,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>256</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -3201,14 +3200,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3217,16 +3216,16 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3265,14 +3264,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3281,64 +3280,64 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>258</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B8" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3377,14 +3376,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3393,286 +3392,286 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>160</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B25" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3681,9 +3680,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13" t="s">
         <v>180</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -3727,14 +3726,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3743,13 +3742,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -3757,182 +3756,182 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3941,9 +3940,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="16" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="6"/>
@@ -3974,25 +3973,24 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>伝票経理</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4001,13 +3999,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -4015,30 +4013,30 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B7" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4047,9 +4045,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
         <v>183</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -4093,14 +4091,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4109,844 +4107,844 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="30"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="20">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="20">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="20">
+      <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="20">
+      <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="20">
+      <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="30"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="20">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23" t="s">
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="30"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="20">
+      <c r="B31" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="20">
+      <c r="B32" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="20">
+      <c r="B33" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="20">
+      <c r="B34" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="20">
+      <c r="B35" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="20">
+      <c r="B36" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="30"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="20">
+      <c r="B37" s="16">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="30"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="20">
+      <c r="B38" s="16">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="30"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="20">
+      <c r="B39" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F39" s="30"/>
+      <c r="F39" s="26"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="20">
+      <c r="B40" s="16">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="20">
+      <c r="B41" s="16">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="20">
+      <c r="B42" s="16">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="20">
+      <c r="B43" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="20">
+      <c r="B44" s="16">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F44" s="30"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="20">
+      <c r="B45" s="16">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="30"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="20">
+      <c r="B46" s="16">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23" t="s">
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="30"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="20">
+      <c r="B47" s="16">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F47" s="30"/>
+      <c r="F47" s="26"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="20">
+      <c r="B48" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="30"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="20">
+      <c r="B49" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F49" s="30"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="20">
+      <c r="B50" s="16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="F50" s="30"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="20">
+      <c r="B51" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="30"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="20">
+      <c r="B52" s="16">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23" t="s">
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="F52" s="30"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="20">
+      <c r="B53" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="23" t="s">
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F53" s="30"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="20">
+      <c r="B54" s="16">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23" t="s">
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F54" s="30"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="20">
+      <c r="B55" s="16">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23" t="s">
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F55" s="30"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="20">
+      <c r="B56" s="16">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23" t="s">
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F56" s="30"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="20">
+      <c r="B57" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23" t="s">
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="30"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="20">
+      <c r="B58" s="16">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F58" s="30"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="20">
+      <c r="B59" s="16">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23" t="s">
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F59" s="30"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="20">
+      <c r="B60" s="16">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F60" s="30"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="20">
+      <c r="B61" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23" t="s">
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="30"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="20">
+      <c r="B62" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23" t="s">
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F62" s="30"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="20">
+      <c r="B63" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F63" s="30"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="20">
+      <c r="B64" s="16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="23" t="s">
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="F64" s="30"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="20">
+      <c r="B65" s="16">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="23" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F65" s="30"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="20">
+      <c r="B66" s="16">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="23" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F66" s="30"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="20">
+      <c r="B67" s="16">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23" t="s">
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="30"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="20">
+      <c r="B68" s="16">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23" t="s">
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="F68" s="30"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="20">
+      <c r="B69" s="16">
         <f t="shared" ref="B69:B73" si="1">ROW()-3</f>
         <v>66</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="23" t="s">
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F69" s="30"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="20">
+      <c r="B70" s="16">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="23" t="s">
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F70" s="30"/>
+      <c r="F70" s="26"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="20">
+      <c r="B71" s="16">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="23" t="s">
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F71" s="30"/>
+      <c r="F71" s="26"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="20">
+      <c r="B72" s="16">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F72" s="30"/>
+      <c r="F72" s="26"/>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1">
       <c r="B73" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="16" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="F73" s="27"/>
+      <c r="F73" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4985,14 +4983,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5001,13 +4999,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -5015,86 +5013,86 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5103,9 +5101,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -5149,14 +5147,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5165,13 +5163,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -5179,198 +5177,198 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B19" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5379,9 +5377,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -5425,14 +5423,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5441,13 +5439,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -5455,16 +5453,16 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B6" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5473,9 +5471,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -5519,14 +5517,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5535,13 +5533,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -5549,184 +5547,184 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5735,9 +5733,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="16" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -5784,14 +5782,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5800,13 +5798,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>256</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -5850,14 +5848,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5866,13 +5864,13 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="6"/>
@@ -5914,14 +5912,14 @@
       <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5930,16 +5928,16 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/1.SA/現行/オブジェクト/現行レポート一覧.xlsx
+++ b/Doc/1.SA/現行/オブジェクト/現行レポート一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
   </bookViews>
   <sheets>
     <sheet name="業務予測システム" sheetId="2" r:id="rId1"/>
@@ -1033,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1072,15 +1072,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1213,26 +1204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1250,19 +1221,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -1339,19 +1297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1380,12 +1325,57 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1396,14 +1386,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1412,31 +1399,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -1445,10 +1432,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
@@ -1457,25 +1456,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
@@ -1489,21 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1809,17 +1790,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1828,276 +1809,276 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B23" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2135,17 +2116,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2154,508 +2135,508 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B45" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="16">
+      <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="16">
+      <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="16">
+      <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="16">
+      <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="16">
+      <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="16">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="s">
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="16">
+      <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="16">
+      <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="16">
+      <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="26"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="16">
+      <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="26"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="16">
+      <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="26"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="16">
+      <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="26"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="26"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="16">
+      <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" spans="2:6" ht="15" thickBot="1">
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="13" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2691,35 +2672,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2758,35 +2739,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2824,17 +2805,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2843,114 +2824,114 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2988,47 +2969,47 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickTop="1">
-      <c r="B4" s="27">
+      <c r="B4" s="21">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3064,35 +3045,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3131,35 +3112,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3197,35 +3178,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3261,17 +3242,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3280,64 +3261,64 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B8" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3373,17 +3354,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3392,300 +3373,300 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B25" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="16">
+      <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3723,17 +3704,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3742,210 +3723,210 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3974,23 +3955,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3999,58 +3980,58 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B7" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4088,17 +4069,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4107,844 +4088,844 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="16">
+      <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="16">
+      <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="16">
+      <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="16">
+      <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="16">
+      <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="16">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="s">
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="16">
+      <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="16">
+      <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="16">
+      <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="26"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="16">
+      <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="26"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="16">
+      <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="26"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="16">
+      <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="26"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="26"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="16">
+      <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="16">
+      <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="26"/>
+      <c r="F45" s="20"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="16">
+      <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="26"/>
+      <c r="F46" s="20"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="16">
+      <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="20"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="16">
+      <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19" t="s">
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="26"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="16">
+      <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F49" s="26"/>
+      <c r="F49" s="20"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="16">
+      <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F50" s="26"/>
+      <c r="F50" s="20"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="16">
+      <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="26"/>
+      <c r="F51" s="20"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="16">
+      <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F52" s="26"/>
+      <c r="F52" s="20"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="16">
+      <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F53" s="26"/>
+      <c r="F53" s="20"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="16">
+      <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F54" s="26"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="16">
+      <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19" t="s">
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="20"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="16">
+      <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F56" s="26"/>
+      <c r="F56" s="20"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="16">
+      <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="26"/>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="16">
+      <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="F58" s="26"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="16">
+      <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F59" s="26"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="16">
+      <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19" t="s">
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F60" s="26"/>
+      <c r="F60" s="20"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="16">
+      <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="26"/>
+      <c r="F61" s="20"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="16">
+      <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" s="20"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="16">
+      <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="20"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="16">
+      <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F64" s="26"/>
+      <c r="F64" s="20"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="16">
+      <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F65" s="26"/>
+      <c r="F65" s="20"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="16">
+      <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="F66" s="26"/>
+      <c r="F66" s="20"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="16">
+      <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="26"/>
+      <c r="F67" s="20"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="16">
+      <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19" t="s">
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F68" s="26"/>
+      <c r="F68" s="20"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="16">
+      <c r="B69" s="12">
         <f t="shared" ref="B69:B73" si="1">ROW()-3</f>
         <v>66</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19" t="s">
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F69" s="26"/>
+      <c r="F69" s="20"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="16">
+      <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="19" t="s">
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="F70" s="26"/>
+      <c r="F70" s="20"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="16">
+      <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="19" t="s">
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F71" s="26"/>
+      <c r="F71" s="20"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="16">
+      <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="19" t="s">
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="F72" s="26"/>
+      <c r="F72" s="20"/>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1">
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="13" t="s">
+      <c r="C73" s="8"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4980,17 +4961,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4999,114 +4980,114 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5144,17 +5125,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5163,226 +5144,226 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B19" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5420,17 +5401,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5439,44 +5420,44 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B6" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5514,17 +5495,17 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5533,212 +5514,212 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5779,35 +5760,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5845,35 +5826,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5909,35 +5890,35 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/1.SA/現行/オブジェクト/現行レポート一覧.xlsx
+++ b/Doc/1.SA/現行/オブジェクト/現行レポート一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="10710" windowHeight="5415" tabRatio="740"/>
   </bookViews>
   <sheets>
     <sheet name="業務予測システム" sheetId="2" r:id="rId1"/>
@@ -998,7 +998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1462,15 +1462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1476,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1768,11 +1768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -1782,21 +1782,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業務予測システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B23" si="0">ROW()-3</f>
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1864,7 +1864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1878,7 +1878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1892,7 +1892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1906,7 +1906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1946,7 +1946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1998,7 +1998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2012,7 +2012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2026,7 +2026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2040,7 +2040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2054,7 +2054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2068,7 +2068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" thickBot="1">
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2096,9 +2096,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -2108,21 +2110,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>既払DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2146,7 +2148,7 @@
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B45" si="0">ROW()-3</f>
         <v>2</v>
@@ -2158,7 +2160,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2170,7 +2172,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2182,7 +2184,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2194,7 +2196,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2206,7 +2208,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2218,7 +2220,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2230,7 +2232,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2242,7 +2244,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2254,7 +2256,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2266,7 +2268,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2278,7 +2280,7 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2290,7 +2292,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2302,7 +2304,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2314,7 +2316,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2326,7 +2328,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2338,7 +2340,7 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2350,7 +2352,7 @@
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2362,7 +2364,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2374,7 +2376,7 @@
       </c>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2386,7 +2388,7 @@
       </c>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2398,7 +2400,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2410,7 +2412,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2422,7 +2424,7 @@
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2434,7 +2436,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2446,7 +2448,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2458,7 +2460,7 @@
       </c>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2470,7 +2472,7 @@
       </c>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2482,7 +2484,7 @@
       </c>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2494,7 +2496,7 @@
       </c>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2506,7 +2508,7 @@
       </c>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2518,7 +2520,7 @@
       </c>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2530,7 +2532,7 @@
       </c>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2542,7 +2544,7 @@
       </c>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2554,7 +2556,7 @@
       </c>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2566,7 +2568,7 @@
       </c>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2578,7 +2580,7 @@
       </c>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2590,7 +2592,7 @@
       </c>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2602,7 +2604,7 @@
       </c>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2614,7 +2616,7 @@
       </c>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2626,7 +2628,7 @@
       </c>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="2:6" ht="15" thickBot="1">
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2652,9 +2654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -2664,21 +2668,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>施行DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2694,7 +2698,7 @@
       <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -2719,9 +2723,11 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -2731,21 +2737,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>立替払システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2761,7 +2767,7 @@
       <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -2785,9 +2791,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -2797,21 +2805,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>償却資産</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -2819,7 +2827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2837,7 +2845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
@@ -2851,7 +2859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2865,7 +2873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2879,7 +2887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2893,7 +2901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2907,7 +2915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2921,7 +2929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2949,9 +2957,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -2961,21 +2971,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>経理DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -2983,7 +2993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2999,7 +3009,7 @@
       </c>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <f>ROW()-3</f>
         <v>2</v>
@@ -3025,9 +3035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3037,21 +3049,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>外注check</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -3059,7 +3071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3067,7 +3079,7 @@
       <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3092,9 +3104,11 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3104,21 +3118,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>伝票データバックアップ</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3134,7 +3148,7 @@
       <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -3158,9 +3172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3170,21 +3186,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>銀行ダウンロード</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -3192,7 +3208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3200,7 +3216,7 @@
       <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3222,9 +3238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3234,21 +3252,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業番点検</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -3256,7 +3274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3270,9 +3288,9 @@
       <c r="E4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B8" si="0">ROW()-3</f>
         <v>2</v>
@@ -3282,9 +3300,9 @@
       <c r="E5" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3294,9 +3312,9 @@
       <c r="E6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3306,9 +3324,9 @@
       <c r="E7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3318,7 +3336,7 @@
       <c r="E8" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3334,9 +3352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3346,21 +3366,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>月末集計</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -3368,7 +3388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3384,7 +3404,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B25" si="0">ROW()-3</f>
         <v>2</v>
@@ -3396,7 +3416,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3408,7 +3428,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3420,7 +3440,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3434,7 +3454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3446,7 +3466,7 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3460,7 +3480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3474,7 +3494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3488,7 +3508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3502,7 +3522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3516,7 +3536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3530,7 +3550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3544,7 +3564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3558,7 +3578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3572,7 +3592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3586,7 +3606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3600,7 +3620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3614,7 +3634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3628,7 +3648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3642,7 +3662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3656,7 +3676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1">
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3684,9 +3704,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3696,21 +3718,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>施行情報システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -3718,7 +3740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3736,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
@@ -3750,7 +3772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3764,7 +3786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3778,7 +3800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3792,7 +3814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3806,7 +3828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3820,7 +3842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3834,7 +3856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3848,7 +3870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3862,7 +3884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3874,7 +3896,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3888,7 +3910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3902,7 +3924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3916,7 +3938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3942,9 +3964,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -3954,20 +3978,20 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
@@ -3975,7 +3999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3993,7 +4017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B7" si="0">ROW()-3</f>
         <v>2</v>
@@ -4007,7 +4031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4021,7 +4045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4049,9 +4073,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4061,21 +4087,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>経理一覧</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -4083,7 +4109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4099,7 +4125,7 @@
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
@@ -4111,7 +4137,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4123,7 +4149,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4135,7 +4161,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4147,7 +4173,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4159,7 +4185,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4171,7 +4197,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4183,7 +4209,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4195,7 +4221,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4207,7 +4233,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4219,7 +4245,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4231,7 +4257,7 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4243,7 +4269,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4255,7 +4281,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4267,7 +4293,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4279,7 +4305,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4291,7 +4317,7 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4303,7 +4329,7 @@
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4315,7 +4341,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4327,7 +4353,7 @@
       </c>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4339,7 +4365,7 @@
       </c>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4351,7 +4377,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4363,7 +4389,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4375,7 +4401,7 @@
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4387,7 +4413,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4399,7 +4425,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4411,7 +4437,7 @@
       </c>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4423,7 +4449,7 @@
       </c>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4435,7 +4461,7 @@
       </c>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4447,7 +4473,7 @@
       </c>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4459,7 +4485,7 @@
       </c>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4471,7 +4497,7 @@
       </c>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4483,7 +4509,7 @@
       </c>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4495,7 +4521,7 @@
       </c>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4507,7 +4533,7 @@
       </c>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4519,7 +4545,7 @@
       </c>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4531,7 +4557,7 @@
       </c>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4543,7 +4569,7 @@
       </c>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4555,7 +4581,7 @@
       </c>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4567,7 +4593,7 @@
       </c>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4579,7 +4605,7 @@
       </c>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4591,7 +4617,7 @@
       </c>
       <c r="F45" s="20"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4603,7 +4629,7 @@
       </c>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4615,7 +4641,7 @@
       </c>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4627,7 +4653,7 @@
       </c>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4639,7 +4665,7 @@
       </c>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4651,7 +4677,7 @@
       </c>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4663,7 +4689,7 @@
       </c>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4675,7 +4701,7 @@
       </c>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4687,7 +4713,7 @@
       </c>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4699,7 +4725,7 @@
       </c>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4711,7 +4737,7 @@
       </c>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4723,7 +4749,7 @@
       </c>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4735,7 +4761,7 @@
       </c>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4747,7 +4773,7 @@
       </c>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4759,7 +4785,7 @@
       </c>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4771,7 +4797,7 @@
       </c>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4783,7 +4809,7 @@
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4795,7 +4821,7 @@
       </c>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4807,7 +4833,7 @@
       </c>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4819,7 +4845,7 @@
       </c>
       <c r="F64" s="20"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4831,7 +4857,7 @@
       </c>
       <c r="F65" s="20"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4843,7 +4869,7 @@
       </c>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4855,7 +4881,7 @@
       </c>
       <c r="F67" s="20"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4867,7 +4893,7 @@
       </c>
       <c r="F68" s="20"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" ref="B69:B73" si="1">ROW()-3</f>
         <v>66</v>
@@ -4879,7 +4905,7 @@
       </c>
       <c r="F69" s="20"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4891,7 +4917,7 @@
       </c>
       <c r="F70" s="20"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4903,7 +4929,7 @@
       </c>
       <c r="F71" s="20"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4915,7 +4941,7 @@
       </c>
       <c r="F72" s="20"/>
     </row>
-    <row r="73" spans="2:6" ht="15" thickBot="1">
+    <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4941,9 +4967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -4953,21 +4981,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>入金閲覧システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -4975,7 +5003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4993,7 +5021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B11" si="0">ROW()-3</f>
         <v>2</v>
@@ -5007,7 +5035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5021,7 +5049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5035,7 +5063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5049,7 +5077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5063,7 +5091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5077,7 +5105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5105,9 +5133,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5117,21 +5147,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>既払閲覧システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -5139,7 +5169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5157,7 +5187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B19" si="0">ROW()-3</f>
         <v>2</v>
@@ -5171,7 +5201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5185,7 +5215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5199,7 +5229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5213,7 +5243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5227,7 +5257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5241,7 +5271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5255,7 +5285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5269,7 +5299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5283,7 +5313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5297,7 +5327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5311,7 +5341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5325,7 +5355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5339,7 +5369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5353,7 +5383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1">
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5381,9 +5411,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5393,21 +5425,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>設備閲覧システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -5415,7 +5447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5433,7 +5465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B6" si="0">ROW()-3</f>
         <v>2</v>
@@ -5447,7 +5479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5475,9 +5507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5487,21 +5521,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>伝票入力システム</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -5509,7 +5543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1">
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5527,7 +5561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
@@ -5541,7 +5575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5555,7 +5589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5569,7 +5603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5583,7 +5617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5597,7 +5631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5611,7 +5645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5625,7 +5659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5639,7 +5673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5653,7 +5687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5667,7 +5701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5681,7 +5715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5695,7 +5729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5709,7 +5743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5740,9 +5774,11 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5752,21 +5788,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>取引先一覧</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -5774,7 +5810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5782,7 +5818,7 @@
       <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -5806,9 +5842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5818,21 +5856,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>伝票同期</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -5840,7 +5878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5848,7 +5886,7 @@
       <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -5870,9 +5908,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
@@ -5882,21 +5922,21 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>月報DB</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>254</v>
       </c>
@@ -5904,7 +5944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5912,7 +5952,7 @@
       <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="11" t="s">
